--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -118,15 +118,15 @@
     <t>safety</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -148,13 +148,13 @@
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
   </si>
   <si>
     <t>community</t>
@@ -1385,25 +1385,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.7577092511013216</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1411,25 +1411,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1437,25 +1437,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.7474747474747475</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L26">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="N26">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1645,25 +1645,25 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.6330275229357798</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="L34">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M34">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1671,13 +1671,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.6215277777777778</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L35">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>0.96</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1697,25 +1697,25 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.6153846153846154</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="10:17">
